--- a/data/case1/18/details_1.xlsx
+++ b/data/case1/18/details_1.xlsx
@@ -60,12 +60,12 @@
     <col min="2" max="2" width="2.140625" customWidth="true"/>
     <col min="3" max="3" width="3.140625" customWidth="true"/>
     <col min="4" max="4" width="3.140625" customWidth="true"/>
-    <col min="5" max="5" width="3.140625" customWidth="true"/>
+    <col min="5" max="5" width="2.140625" customWidth="true"/>
     <col min="6" max="6" width="3.140625" customWidth="true"/>
-    <col min="7" max="7" width="2.140625" customWidth="true"/>
+    <col min="7" max="7" width="3.140625" customWidth="true"/>
     <col min="8" max="8" width="2.140625" customWidth="true"/>
-    <col min="9" max="9" width="3.140625" customWidth="true"/>
-    <col min="10" max="10" width="3.140625" customWidth="true"/>
+    <col min="9" max="9" width="5.7109375" customWidth="true"/>
+    <col min="10" max="10" width="5.7109375" customWidth="true"/>
     <col min="11" max="11" width="5.7109375" customWidth="true"/>
     <col min="12" max="12" width="5.7109375" customWidth="true"/>
     <col min="13" max="13" width="5.7109375" customWidth="true"/>
@@ -74,37 +74,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0">
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F1" s="0">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G1" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H1" s="0">
         <v>2</v>
       </c>
       <c r="I1" s="0">
-        <v>31</v>
+        <v>0.091999999999999998</v>
       </c>
       <c r="J1" s="0">
-        <v>27</v>
+        <v>0.076999999999999999</v>
       </c>
       <c r="K1" s="0">
-        <v>0.070999999999999994</v>
+        <v>0.065000000000000002</v>
       </c>
       <c r="L1" s="0">
         <v>0.014999999999999999</v>
